--- a/data/trans_bre/P14B24_2016_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P14B24_2016_2023-Clase-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-0.147850694332851</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.462276555795817</v>
+        <v>3.462276555795818</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.2221096249874469</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>2.775067206584618</v>
+        <v>2.775067206584619</v>
       </c>
     </row>
     <row r="5">
@@ -609,14 +609,14 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.254972525890966</v>
+        <v>-1.272484619197708</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.213436766180827</v>
+        <v>1.561039955415217</v>
       </c>
       <c r="E5" s="6" t="inlineStr"/>
       <c r="F5" s="6" t="n">
-        <v>0.1228670745940154</v>
+        <v>0.4453596347762062</v>
       </c>
     </row>
     <row r="6">
@@ -627,14 +627,14 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9756347416555449</v>
+        <v>0.8669335074685672</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.536680341883326</v>
+        <v>5.74962791790835</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>8.973577165403103</v>
+        <v>10.02783294543045</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         <v>0.9445120574552086</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3.234798497244713</v>
+        <v>3.234798497244716</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.8771296063056329</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1.593594715313349</v>
+        <v>1.59359471531335</v>
       </c>
     </row>
     <row r="8">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6800669842455735</v>
+        <v>-0.8084801059158887</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.981499628851902</v>
+        <v>1.16984537976384</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5932354091043581</v>
+        <v>-0.6383995551637459</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2657604826054217</v>
+        <v>0.3001390494218744</v>
       </c>
     </row>
     <row r="9">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.06023628172467</v>
+        <v>2.928809980658314</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.699861642457531</v>
+        <v>5.751943422149435</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>7.167795188484138</v>
+        <v>7.02690435557024</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.58107843138074</v>
+        <v>4.684846608163596</v>
       </c>
     </row>
     <row r="10">
@@ -716,13 +716,13 @@
         <v>3.782644069258188</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>4.783591036105322</v>
+        <v>4.783591036105321</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>9.580802805830492</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1.481369519751339</v>
+        <v>1.481369519751338</v>
       </c>
     </row>
     <row r="11">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.217660631675291</v>
+        <v>1.340208121467652</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.58930408745472</v>
+        <v>1.433523908834443</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.3090345953052398</v>
+        <v>0.07789277064548532</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.2601217877287716</v>
+        <v>0.2257658787346158</v>
       </c>
     </row>
     <row r="12">
@@ -753,14 +753,14 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.476159324662715</v>
+        <v>8.502359274477254</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.015592192125926</v>
+        <v>8.882653104785081</v>
       </c>
       <c r="E12" s="6" t="inlineStr"/>
       <c r="F12" s="6" t="n">
-        <v>4.283157841991439</v>
+        <v>3.925885400169147</v>
       </c>
     </row>
     <row r="13">
@@ -795,16 +795,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6699933194253019</v>
+        <v>0.6808894543097709</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9865942903460814</v>
+        <v>1.078081981349892</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2675761466202514</v>
+        <v>0.3016317200801455</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2196342792263737</v>
+        <v>0.2266488187044287</v>
       </c>
     </row>
     <row r="15">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.688343083650314</v>
+        <v>3.650929035412485</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.555077873645009</v>
+        <v>4.627978032777854</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.389476355287282</v>
+        <v>3.449211322994634</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.711432877738058</v>
+        <v>1.743243634778676</v>
       </c>
     </row>
     <row r="16">
@@ -842,13 +842,13 @@
         <v>4.614726531965728</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.969227064794034</v>
+        <v>3.969227064794036</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>2.828005132221776</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>1.334763687945438</v>
+        <v>1.334763687945439</v>
       </c>
     </row>
     <row r="17">
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.46615466251544</v>
+        <v>2.602544186819737</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.909098525671283</v>
+        <v>2.021832646810747</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.8025891116010699</v>
+        <v>1.019610316904748</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.4016154475391749</v>
+        <v>0.4114579649097428</v>
       </c>
     </row>
     <row r="18">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.5902406396631</v>
+        <v>6.797060107227246</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.060064991385206</v>
+        <v>5.862529934311209</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6.794199371920878</v>
+        <v>7.056438668872527</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3.300462139678794</v>
+        <v>2.940881021104913</v>
       </c>
     </row>
     <row r="19">
@@ -906,13 +906,13 @@
         <v>4.78348109277979</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>3.242425060141253</v>
+        <v>3.242425060141251</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>14.4370535858542</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1.139179188666353</v>
+        <v>1.139179188666352</v>
       </c>
     </row>
     <row r="20">
@@ -923,14 +923,14 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.286890912338404</v>
+        <v>3.314010322540572</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.228643716420282</v>
+        <v>-1.398839980212415</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.3603755021941423</v>
+        <v>-0.2664679587949713</v>
       </c>
     </row>
     <row r="21">
@@ -941,14 +941,14 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.248954530594619</v>
+        <v>6.426708549755173</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.624586548226663</v>
+        <v>5.900113887445706</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>6.058102403190667</v>
+        <v>7.433511794260703</v>
       </c>
     </row>
     <row r="22">
@@ -972,7 +972,7 @@
         <v>2.78805303513757</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1.239838833896088</v>
+        <v>1.239838833896089</v>
       </c>
     </row>
     <row r="23">
@@ -983,16 +983,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.27001790781812</v>
+        <v>2.27836632175467</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.418930194733062</v>
+        <v>2.506848922055573</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1.663611807746993</v>
+        <v>1.639987103357109</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.7356906198831141</v>
+        <v>0.7615287618911573</v>
       </c>
     </row>
     <row r="24">
@@ -1003,16 +1003,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.828252845883938</v>
+        <v>3.78071353514208</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.208269710487058</v>
+        <v>4.321752693449529</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>4.364513592821072</v>
+        <v>4.552674943377203</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.811875953872752</v>
+        <v>1.884744932954486</v>
       </c>
     </row>
     <row r="25">
